--- a/customer_feedback_with_sentiment.xlsx
+++ b/customer_feedback_with_sentiment.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -716,7 +716,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -731,7 +731,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -821,7 +821,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -896,7 +896,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -941,7 +941,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -1031,7 +1031,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -1226,7 +1226,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Negative</t>
         </is>
       </c>
     </row>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Neutral</t>
+          <t>Positive</t>
         </is>
       </c>
     </row>
